--- a/docs/科达洁能仓储系统开发工作计划.xlsx
+++ b/docs/科达洁能仓储系统开发工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="16968" windowHeight="9515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="彭威工作计划" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>工作计划和工作记录</t>
   </si>
@@ -452,16 +452,35 @@
     <t>入库单新增界面不需要异常信息编辑</t>
   </si>
   <si>
+    <t>把编辑表单&gt;页面属性中的表单显示的对勾去掉</t>
+  </si>
+  <si>
     <t>入库业务后台逻辑出现异常时，没有回滚数据</t>
   </si>
   <si>
     <t>出库管理修改为带细单显示的模式</t>
   </si>
   <si>
+    <t>附表设置主键需要查询</t>
+  </si>
+  <si>
     <t>如果出库单当前有初始未分配的订单库存，则此库存不能出现在新增订单时的库存选择界面</t>
   </si>
   <si>
+    <t>重写报表配置的sql语句</t>
+  </si>
+  <si>
     <t>入库单分配货位时，如果货位的“是否可自动上架”为否，则不能分配到此货位</t>
+  </si>
+  <si>
+    <t>1:已有相同货物的货位的rackflag为0时,是否被剔除;
+getLocByLocno 添加rackflag=1的条件  添加order by loclevel
+代码添加      
+if(loc!=null){
+locno = loc.getLocno();}
+2:查找到rackflag为1的空货位. ---
+ WmsLocDao 中的getEmptyLoc改为
+select l.* from wms_loc l where not exists (select 1 from wms_stock s where s.locno = l.locno|| l.rackflag = 0) order by l.loclevel</t>
   </si>
   <si>
     <t>增加自动库存调整逻辑</t>
@@ -475,44 +494,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -520,14 +532,99 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -535,15 +632,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -551,99 +640,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -668,37 +687,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,145 +837,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,30 +1013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1029,6 +1024,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,7 +1056,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,11 +1076,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,148 +1104,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1347,57 +1366,62 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1431,8 +1455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7919720" y="1543050"/>
-          <a:ext cx="4378960" cy="1978025"/>
+          <a:off x="8134350" y="1554480"/>
+          <a:ext cx="4509135" cy="1978025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1473,8 +1497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12329160" y="1626870"/>
-          <a:ext cx="5687060" cy="1009015"/>
+          <a:off x="12673965" y="1638300"/>
+          <a:ext cx="5850255" cy="1009015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,7 +1522,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1775,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
@@ -1783,11 +1807,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="22" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30.552380952381" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30.5555555555556" style="22" customWidth="1"/>
     <col min="4" max="4" width="9.33333333333333" style="22" customWidth="1"/>
     <col min="5" max="6" width="9" style="22"/>
     <col min="7" max="7" width="27.3333333333333" style="22" customWidth="1"/>
@@ -1796,7 +1820,7 @@
     <col min="10" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.5" spans="1:13">
+    <row r="1" ht="45" spans="1:13">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1854,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" ht="21" spans="1:9">
+    <row r="3" ht="20.4" spans="1:9">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:9">
+    <row r="8" ht="28.8" spans="1:9">
       <c r="A8" s="30">
         <v>4</v>
       </c>
@@ -2100,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -2108,18 +2132,18 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.8857142857143" customWidth="1"/>
-    <col min="2" max="2" width="23.7809523809524" customWidth="1"/>
+    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="32.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.1142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.88571428571429" customWidth="1"/>
-    <col min="7" max="7" width="22.8857142857143" customWidth="1"/>
-    <col min="9" max="9" width="48.1142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="22.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="48.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.5" spans="1:9">
+    <row r="1" ht="45" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2188,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" ht="27" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:9">
+    <row r="5" ht="28.8" spans="1:9">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2220,7 +2244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2274,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:9">
+    <row r="8" ht="28.8" spans="1:9">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2471,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -2479,13 +2503,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.1142857142857" style="11" customWidth="1"/>
-    <col min="2" max="2" width="23.447619047619" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22.6285714285714" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.1111111111111" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.6296296296296" style="11" customWidth="1"/>
     <col min="4" max="4" width="27.6666666666667" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.447619047619" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.4444444444444" style="11" customWidth="1"/>
     <col min="6" max="16383" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2527,7 +2551,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" ht="28.8" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
@@ -2687,42 +2711,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.752380952381" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="32.75" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.38095238095238" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.9619047619048" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.6285714285714" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.5047619047619" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.05714285714286" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.24761904761905" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.37962962962963" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.6296296296296" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.5092592592593" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.05555555555556" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.75238095238095" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.24761904761905" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.752380952381" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="5" customWidth="1"/>
     <col min="11" max="11" width="13" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.3809523809524" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.5047619047619" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.3809523809524" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.247619047619" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.247619047619" style="5" customWidth="1"/>
-    <col min="17" max="17" width="6.87619047619048" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.75238095238095" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.3809523809524" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.3796296296296" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.5092592592593" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.3796296296296" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.87962962962963" style="5" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.3796296296296" style="5" customWidth="1"/>
     <col min="20" max="20" width="13" style="5" customWidth="1"/>
-    <col min="21" max="21" width="11.247619047619" style="5" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="5" customWidth="1"/>
     <col min="22" max="22" width="10" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="32.752380952381" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="32.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" ht="28.8" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +2786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="58.5" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="57.6" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2796,7 +2820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.5" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2830,7 +2854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="28.5" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2850,7 +2874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="8" s="2" customFormat="1" ht="28.8" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -2864,7 +2888,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="28.5" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="28.8" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2918,7 +2942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="28.5" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="28.8" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2938,20 +2962,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4">
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="28.8" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -2960,28 +2993,55 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4">
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:2">
-      <c r="A16" s="4">
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" ht="43.5" spans="1:2">
-      <c r="A17" s="4">
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="230.4" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>147</v>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2989,15 +3049,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>149</v>
+      <c r="B19" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
